--- a/notes.xlsx
+++ b/notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2b3d\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{623BACF4-43CD-438F-A885-B9773F8658D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D23952DB-5123-49A4-8A0A-36A43DFF4A2F}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="13_ncr:1_{623BACF4-43CD-438F-A885-B9773F8658D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{68B085E1-A49E-4B1D-B8AA-9C84E3580679}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22695" windowHeight="14595" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22695" windowHeight="14595" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="242">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Votre graphique 3 est vide. Aucune analyse de fait sur les résultats mise à part les 2 lignes à la fin.</t>
+  </si>
+  <si>
+    <t>C'est qui "Kokolokoli" ? Pas d'analyse et une comparaison quantitative avec sprint 1. Le paragraphe 3 n'est pas supporté par les métriques</t>
+  </si>
+  <si>
+    <t>Comparaison avec le sprint 2 un peu faible. La contribution est assez déséquilibrée (à moins que Nicole ait vraiment fait 39% des changements dans le projet toute seule) et devrait être un point de discussion à votre prochaine réunion d'équipe.</t>
   </si>
   <si>
     <t>Grille de correction Projet 2</t>
@@ -378,9 +384,20 @@
 CanvasComponent entre autres est trivial.</t>
   </si>
   <si>
+    <t>Transformez Strings,  NumericalValues, etc. en enums.
+IndexController et IndexService n'ont pas des noms représentatifs de leurs tâches.</t>
+  </si>
+  <si>
+    <t>IndexService n'a pas un nom représentatif de sa tâche.
+AppComponent, entre autres, a trop de responsabilités.</t>
+  </si>
+  <si>
     <t>La classe minimise l'accessibilité des membres</t>
   </si>
   <si>
+    <t>ToolHandlerService entre autres ne limite pas l'accès à ses membres.</t>
+  </si>
+  <si>
     <t>Total de la catégorie</t>
   </si>
   <si>
@@ -391,6 +408,14 @@
   </si>
   <si>
     <t xml:space="preserve">MockCanvasComponent.ngOnInit entre autres est triviale.
+</t>
+  </si>
+  <si>
+    <t>PaintbrushComponent.setFilter, StampComponent.setStamp, etc. ne sont pas DRY. Utilisez une map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resetSavedAttributes n'est pas DRY et a trop de responsabilités.
+ColourPaletteComponent.draw, saveDrawingToJson, etc. ont trop de responsabilités.
 </t>
   </si>
   <si>
@@ -436,13 +461,30 @@
 - `color-palette.component.ts` propriété mousedown devrait être camelCase. -0.25</t>
   </si>
   <si>
+    <t>- `drawing-tool-toolbox.component.spec.ts` MockToolHandler should be camelCase.</t>
+  </si>
+  <si>
     <t>Expression Booléennes (William)</t>
   </si>
   <si>
     <t>Les expression booléennes ne sont pas comparées à true et false</t>
   </si>
   <si>
+    <t>- `color.service.ts` méthode addColor: if (newColor === true)</t>
+  </si>
+  <si>
+    <t>- `colours.service.ts` méthode addColour: if (newColour === true). -0.5</t>
+  </si>
+  <si>
     <t>Utilisation des opérateurs ternaires dans les bon scénarii</t>
+  </si>
+  <si>
+    <t>- `canvas.component.ts` méthode getColorFromShape devrait utiliser un opérateur ternaire.</t>
+  </si>
+  <si>
+    <t>- `canvas.component.ts` méthode getColourFromShape:
+  utilisez un ternaire. -0.5
+- `gallery.window.component.ts` constructeur: utilisez un ternaire pour l'assignation de this.data.filterTags ou, mieux encore, un simple ou logique. Exemple: this.data.filterTags = response || []; -0.5</t>
   </si>
   <si>
     <t>Pas d'expressions booléennes complexes. Des prédicats sont utilisés pour simplifier les conditions complexes</t>
@@ -452,6 +494,9 @@
 - `color-palette.component.ts` méthode onMouseUp: le if imbriqué est complètement inutile. Si `pos` est undefined, vous allez avoir une erreur d'accès à pos.x et pos.y, ce qui lancera une exception et quittera le scope avant de s'y rendre. -0.25</t>
   </si>
   <si>
+    <t>- `app.component.ts` longue condition répétée dans 5 méthodes différentes devrait être mise dans un prédicat. -0.5</t>
+  </si>
+  <si>
     <t>Qualité Générale (Ryan)</t>
   </si>
   <si>
@@ -479,6 +524,9 @@
     <t>Les commentaires sont pertinents (Voir p.780 et p.816)</t>
   </si>
   <si>
+    <t xml:space="preserve">index-controller.spec.ts. </t>
+  </si>
+  <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)</t>
   </si>
   <si>
@@ -500,7 +548,17 @@
     <t>Chaque commit concerne une seule "issue" et les messages sont pertinents et suffisamment descriptifs pour chaque commit</t>
   </si>
   <si>
+    <t>Diff de commit trop gros (ex: 875e964ac2f12ed282888cc358473f671306b199)
+Nom de commit trop vague (ex: fix everything)</t>
+  </si>
+  <si>
     <t>Le repo git ne contient que les fichiers nécessaires. (pas de dossier node_modules ou de package-lock.json et pas de package.json dans des dossiers autre que client ou server)</t>
+  </si>
+  <si>
+    <t>Présence de fichiers inutiles tels que yarn.lock ou package.json à la racine de votre repo</t>
+  </si>
+  <si>
+    <t>Présence de fichiers inutiles fournis avec le cadriciel tels que date.controller.ts</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -593,63 +651,133 @@
     <t>Ne build pas</t>
   </si>
   <si>
+    <t>37c7fe808255e447da47cd5865dcbf5a839911cb</t>
+  </si>
+  <si>
     <t>Ouvrir un dessin-Serveur</t>
   </si>
   <si>
+    <t>La liste doit être chargeable sans présenter trop de choix à l'utilisateur (max de 8 en même temps). Pas de tests</t>
+  </si>
+  <si>
     <t>Etiquettes</t>
   </si>
   <si>
+    <t>La recherche par etiquette custom fait planter la recherche active en enlevant les resultats precedents. Des fois la sauvegarde d'étiquette plante. pas de test serveur. Tests clients insuffisants</t>
+  </si>
+  <si>
     <t>Sauvegarder le dessin-serveur</t>
   </si>
   <si>
+    <t>Psa de test serveur, pas de test client</t>
+  </si>
+  <si>
     <t>Outil-Sélection et inversion de sélection</t>
   </si>
   <si>
+    <t>L'inversion ne fonctionne pas en glisser-deposer et bug parfois en "selectionnant et deselectionnant plusieurs fois de suite le meme objet"</t>
+  </si>
+  <si>
     <t>Grille(surface de dessin)</t>
   </si>
   <si>
     <t>Outil - Ligne</t>
   </si>
   <si>
+    <t>Raccourci non fonctionnel
+Identifiez vos options sur le panneau d'attribut
+Pas de différence entre angle et arrondi
+Pas de feedback visuel sur l'option sélectionne pour la jonction et le tracé
+Quand on a de l'épaisseur le trace en pointillé est à peine visible
+On peut avoir un épaisseur nul
+La jonction en point ne fonctionne pas</t>
+  </si>
+  <si>
     <t>Outil-Ellipse</t>
   </si>
   <si>
     <t>Outil - Polygone</t>
   </si>
   <si>
+    <t>N'occupe pas tout le temps la plus grande aire possible</t>
+  </si>
+  <si>
     <t>Outil- Pipette</t>
   </si>
   <si>
     <t>Outil-Étampe</t>
   </si>
   <si>
+    <t>Pas de feeback visuel sur la sélection de l'étampe, pas de séparation avec les autres options (gallerie, sauvegarde...)
+Alt + scroll ne fonctionne pas
+Pas de tests</t>
+  </si>
+  <si>
+    <t>Beaucoup de vos tests échouent
+Le tracé ne fonctionne pas sur firefox Les tests qui ne passent pas sont enlevés</t>
+  </si>
+  <si>
     <t>Anciennes fonctionnalités brisées</t>
   </si>
   <si>
+    <t>D'anciens tests échouent
+Le bouton d'inversion de couleur dans la barre latérale ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>fca70a42e6c89145d7988acd1c1561852f101fe6</t>
+  </si>
+  <si>
     <t>Ouvrir un dessin-Local</t>
   </si>
   <si>
+    <t>Vous devriez avoir des tests de déserialization</t>
+  </si>
+  <si>
     <t>Sauvegarder le dessin-local</t>
   </si>
   <si>
+    <t>Vos tests laissent à désirer</t>
+  </si>
+  <si>
     <t>Manipulation de sélections avec presse-papier</t>
   </si>
   <si>
+    <t>Pas de select all
+Pas de raccourci pour la suppression
+Quand la duplication fait en sorte que la sélection sort complètement de la surgace de dessin, elle ne revient pas à sa potition initiale mais reste à sa dernière position
+Quand on fait un couper, la boite de sélection reste présente
+Les boutons sur la barre latérale ne reflètent pas l'état du presse papier</t>
+  </si>
+  <si>
     <t>Exporter le dessin</t>
   </si>
   <si>
+    <t>Il n'est pas possible d'exporter les étampes. L'export PNG, JPEG et BMP ne fonctionnent pas..étrange. L'export garde aussi la boite de sélection</t>
+  </si>
+  <si>
     <t>Outi-Texte</t>
   </si>
   <si>
+    <t>Le texte sort un peu de la boîte de texte. Elle ne se met pas à jour correctement (avec les break line et backspace)
+Vos boutons pour l'alignement et le gras/italique n'ont aucun feedback visuel</t>
+  </si>
+  <si>
     <t>Outil-Efface</t>
   </si>
   <si>
+    <t>Pas de bordures rouges pour les traits et textes</t>
+  </si>
+  <si>
     <t>Outil-Stylo</t>
   </si>
   <si>
     <t>Annuler-refaire</t>
   </si>
   <si>
+    <t>Quand on fait un opération sur plusieurs objets en même temps (par exemple dupliquer 2 objets), c'est considérer comme plusieurs actions plutôt qu'une
+Ne fonctionne pas bien avec l'applicateur de couleur</t>
+  </si>
+  <si>
     <t>Outil-Aérosol</t>
   </si>
   <si>
@@ -666,6 +794,18 @@
   </si>
   <si>
     <t>Rotation d'une sélection</t>
+  </si>
+  <si>
+    <t>Déplacement d'une sélection</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>Bonus (CDN (4), Timestamp(1), Countour et tracé (4))</t>
+  </si>
+  <si>
+    <t>Mettre un chiffre de 0-9</t>
   </si>
 </sst>
 </file>
@@ -901,7 +1041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="102">
     <border>
       <left/>
       <right/>
@@ -2243,6 +2383,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2265,7 +2418,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2937,6 +3090,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="12" fillId="19" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2953,9 +3118,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="19" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3911,18 +4073,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="15">
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="289" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="287" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="287"/>
-      <c r="G2" s="288" t="s">
+      <c r="F2" s="290"/>
+      <c r="G2" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="288"/>
+      <c r="H2" s="291"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="138"/>
@@ -4203,7 +4365,7 @@
       <c r="F2" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="292" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4216,7 +4378,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="29"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="290"/>
+      <c r="G3" s="293"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickTop="1">
       <c r="A4" s="76" t="s">
@@ -4533,21 +4695,21 @@
       <c r="A27" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="291" t="s">
+      <c r="H27" s="294" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="292"/>
+      <c r="I27" s="295"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="A28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="335" t="s">
+      <c r="B28" s="338" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="336"/>
-      <c r="D28" s="337"/>
-      <c r="E28" s="338"/>
+      <c r="C28" s="339"/>
+      <c r="D28" s="340"/>
+      <c r="E28" s="341"/>
       <c r="F28" s="94"/>
       <c r="H28" s="4" t="s">
         <v>58</v>
@@ -4884,7 +5046,7 @@
       <c r="F2" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="292" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4897,7 +5059,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="29"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="290"/>
+      <c r="G3" s="293"/>
     </row>
     <row r="4" spans="1:7" ht="30.75" thickTop="1">
       <c r="A4" s="76" t="s">
@@ -5266,21 +5428,21 @@
       <c r="A31" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="291" t="s">
+      <c r="H31" s="294" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="292"/>
+      <c r="I31" s="295"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="335" t="s">
+      <c r="B32" s="338" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="336"/>
-      <c r="D32" s="337"/>
-      <c r="E32" s="338"/>
+      <c r="C32" s="339"/>
+      <c r="D32" s="340"/>
+      <c r="E32" s="341"/>
       <c r="F32" s="94"/>
       <c r="H32" s="4" t="s">
         <v>58</v>
@@ -5617,7 +5779,7 @@
       <c r="F2" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="292" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5630,7 +5792,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="29"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="290"/>
+      <c r="G3" s="293"/>
     </row>
     <row r="4" spans="1:7" ht="30.75" thickTop="1">
       <c r="A4" s="76" t="s">
@@ -6025,21 +6187,21 @@
       <c r="A33" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="291" t="s">
+      <c r="H33" s="294" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="292"/>
+      <c r="I33" s="295"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="335" t="s">
+      <c r="B34" s="338" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="336"/>
-      <c r="D34" s="337"/>
-      <c r="E34" s="338"/>
+      <c r="C34" s="339"/>
+      <c r="D34" s="340"/>
+      <c r="E34" s="341"/>
       <c r="F34" s="94"/>
       <c r="H34" s="4" t="s">
         <v>58</v>
@@ -6344,7 +6506,7 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6355,13 +6517,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="279"/>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
+      <c r="A2" s="283"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="283"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="279"/>
+      <c r="A3" s="283"/>
       <c r="B3" s="188" t="s">
         <v>98</v>
       </c>
@@ -6410,17 +6572,22 @@
       </c>
       <c r="B5" s="192">
         <f>(Fonctionnalité!E32)</f>
-        <v>0</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C5" s="193">
         <f>'Assurance Qualité'!D49</f>
-        <v>0.04</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D5" s="193">
         <f>AVERAGE(B5:C5) - 0.1*E5</f>
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="275"/>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G5" s="275">
+        <v>0.66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="194" t="s">
@@ -6428,24 +6595,29 @@
       </c>
       <c r="B6" s="195">
         <f>(Fonctionnalité!E47)</f>
-        <v>0</v>
+        <v>0.78799999999999992</v>
       </c>
       <c r="C6" s="196">
         <f>'Assurance Qualité'!F49</f>
-        <v>0</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="D6" s="196">
         <f>AVERAGE(B6:C6) - 0.1*E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="275"/>
+        <v>0.7902499999999999</v>
+      </c>
+      <c r="G6" s="275">
+        <v>0.8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="197" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="198">
-        <f>(Fonctionnalité!E60)</f>
+        <f>Fonctionnalité!E62</f>
         <v>0</v>
       </c>
       <c r="C7" s="199">
@@ -6471,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C68761-F424-44AF-8353-006282F54B4A}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -6482,36 +6654,36 @@
     <col min="4" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A1" s="312" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="314"/>
+      <c r="A1" s="315" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="317"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="300" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="299"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="302"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1">
       <c r="A4" s="202"/>
@@ -6525,86 +6697,86 @@
       <c r="I4" s="203"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1">
-      <c r="A5" s="315" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="301"/>
-      <c r="D5" s="317" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="318"/>
-      <c r="F5" s="306" t="s">
+      <c r="A5" s="318" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="304"/>
+      <c r="D5" s="320" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="321"/>
+      <c r="F5" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="307"/>
-      <c r="H5" s="308" t="s">
+      <c r="G5" s="310"/>
+      <c r="H5" s="311" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="309"/>
-      <c r="J5" s="310" t="s">
+      <c r="I5" s="312"/>
+      <c r="J5" s="313" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="311"/>
-      <c r="L5" s="311"/>
+      <c r="K5" s="314"/>
+      <c r="L5" s="314"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="316"/>
-      <c r="B6" s="281" t="s">
+      <c r="A6" s="319"/>
+      <c r="B6" s="285" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="205" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="280" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="284" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="282" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="286" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="149" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="283" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="287" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="150" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="279" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="279" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="283" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="283" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="279" t="s">
+      <c r="M6" s="283" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75">
-      <c r="A7" s="297" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="298"/>
-      <c r="C7" s="298"/>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="298"/>
-      <c r="I7" s="299"/>
-    </row>
-    <row r="8" spans="1:13" ht="135">
+      <c r="A7" s="300" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="302"/>
+    </row>
+    <row r="8" spans="1:13" ht="150">
       <c r="A8" s="140" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" s="206">
         <v>0.5</v>
@@ -6612,11 +6784,15 @@
       <c r="C8" s="207">
         <v>9</v>
       </c>
-      <c r="D8" s="167"/>
+      <c r="D8" s="167">
+        <v>0</v>
+      </c>
       <c r="E8" s="151">
         <v>9</v>
       </c>
-      <c r="F8" s="174"/>
+      <c r="F8" s="174">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="152">
         <v>9</v>
       </c>
@@ -6625,12 +6801,18 @@
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15">
       <c r="A9" s="141" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B9" s="208">
         <v>1</v>
@@ -6638,11 +6820,15 @@
       <c r="C9" s="209">
         <v>3</v>
       </c>
-      <c r="D9" s="168"/>
+      <c r="D9" s="168">
+        <v>0</v>
+      </c>
       <c r="E9" s="154">
         <v>3</v>
       </c>
-      <c r="F9" s="175"/>
+      <c r="F9" s="175">
+        <v>1</v>
+      </c>
       <c r="G9" s="155">
         <v>3</v>
       </c>
@@ -6650,10 +6836,13 @@
       <c r="I9" s="156">
         <v>3</v>
       </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="146" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B10" s="211">
         <f>SUMPRODUCT(B8:B9,C8:C9)</f>
@@ -6673,7 +6862,7 @@
       </c>
       <c r="F10" s="176">
         <f>SUMPRODUCT(F8:F9,G8:G9)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G10" s="158">
         <f>SUM(G8:G9)</f>
@@ -6689,21 +6878,21 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75">
-      <c r="A11" s="297" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="298"/>
-      <c r="C11" s="298"/>
-      <c r="D11" s="298"/>
-      <c r="E11" s="298"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="298"/>
-      <c r="I11" s="299"/>
-    </row>
-    <row r="12" spans="1:13" ht="135">
+      <c r="A11" s="300" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="301"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="301"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="301"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="301"/>
+      <c r="I11" s="302"/>
+    </row>
+    <row r="12" spans="1:13" ht="255">
       <c r="A12" s="140" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B12" s="206">
         <v>0.75</v>
@@ -6711,11 +6900,15 @@
       <c r="C12" s="209">
         <v>9</v>
       </c>
-      <c r="D12" s="167"/>
+      <c r="D12" s="167">
+        <v>0.5</v>
+      </c>
       <c r="E12" s="154">
         <v>9</v>
       </c>
-      <c r="F12" s="174"/>
+      <c r="F12" s="174">
+        <v>0.25</v>
+      </c>
       <c r="G12" s="152">
         <v>9</v>
       </c>
@@ -6724,12 +6917,18 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30">
       <c r="A13" s="141" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B13" s="213">
         <v>1</v>
@@ -6743,7 +6942,9 @@
       <c r="E13" s="154">
         <v>2</v>
       </c>
-      <c r="F13" s="177"/>
+      <c r="F13" s="177">
+        <v>1</v>
+      </c>
       <c r="G13" s="155">
         <v>2</v>
       </c>
@@ -6754,7 +6955,7 @@
     </row>
     <row r="14" spans="1:13" ht="15">
       <c r="A14" s="142" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B14" s="214">
         <v>1</v>
@@ -6768,7 +6969,9 @@
       <c r="E14" s="154">
         <v>2</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="177">
+        <v>1</v>
+      </c>
       <c r="G14" s="155">
         <v>2</v>
       </c>
@@ -6779,7 +6982,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="146" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B15" s="211">
         <f>SUMPRODUCT(B12:B14,C12:C14)</f>
@@ -6791,7 +6994,7 @@
       </c>
       <c r="D15" s="169">
         <f>SUMPRODUCT(D12:D14,E12:E14)</f>
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="E15" s="157">
         <f>SUM(E12:E14)</f>
@@ -6799,7 +7002,7 @@
       </c>
       <c r="F15" s="176">
         <f>SUMPRODUCT(F12:F14,G12:G14)</f>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="G15" s="158">
         <f>SUM(G12:G14)</f>
@@ -6815,21 +7018,21 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75">
-      <c r="A16" s="297" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="298"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="298"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="298"/>
-      <c r="I16" s="299"/>
-    </row>
-    <row r="17" spans="1:10" ht="15">
+      <c r="A16" s="300" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="301"/>
+      <c r="C16" s="301"/>
+      <c r="D16" s="301"/>
+      <c r="E16" s="301"/>
+      <c r="F16" s="301"/>
+      <c r="G16" s="301"/>
+      <c r="H16" s="301"/>
+      <c r="I16" s="302"/>
+    </row>
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="140" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B17" s="208">
         <v>0.75</v>
@@ -6837,11 +7040,15 @@
       <c r="C17" s="207">
         <v>2</v>
       </c>
-      <c r="D17" s="168"/>
+      <c r="D17" s="168">
+        <v>1</v>
+      </c>
       <c r="E17" s="151">
         <v>2</v>
       </c>
-      <c r="F17" s="175"/>
+      <c r="F17" s="175">
+        <v>1</v>
+      </c>
       <c r="G17" s="152">
         <v>2</v>
       </c>
@@ -6850,12 +7057,12 @@
         <v>2</v>
       </c>
       <c r="J17" s="277" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="141" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B18" s="208">
         <v>1</v>
@@ -6863,11 +7070,15 @@
       <c r="C18" s="209">
         <v>2</v>
       </c>
-      <c r="D18" s="168"/>
+      <c r="D18" s="168">
+        <v>1</v>
+      </c>
       <c r="E18" s="154">
         <v>2</v>
       </c>
-      <c r="F18" s="175"/>
+      <c r="F18" s="175">
+        <v>1</v>
+      </c>
       <c r="G18" s="155">
         <v>2</v>
       </c>
@@ -6876,9 +7087,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="142" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B19" s="208">
         <v>1</v>
@@ -6886,11 +7097,15 @@
       <c r="C19" s="210">
         <v>2</v>
       </c>
-      <c r="D19" s="168"/>
+      <c r="D19" s="168">
+        <v>1</v>
+      </c>
       <c r="E19" s="157">
         <v>2</v>
       </c>
-      <c r="F19" s="175"/>
+      <c r="F19" s="175">
+        <v>1</v>
+      </c>
       <c r="G19" s="158">
         <v>2</v>
       </c>
@@ -6899,9 +7114,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="146" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B20" s="211">
         <f>SUMPRODUCT(B17:B19,C17:C19)</f>
@@ -6913,7 +7128,7 @@
       </c>
       <c r="D20" s="169">
         <f>SUMPRODUCT(D17:D19,E17:E19)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="160">
         <f>SUM(E17:E19)</f>
@@ -6921,7 +7136,7 @@
       </c>
       <c r="F20" s="176">
         <f>SUMPRODUCT(F17:F19,G17:G19)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G20" s="158">
         <f>SUM(G17:G19)</f>
@@ -6936,22 +7151,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75">
-      <c r="A21" s="297" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="298"/>
-      <c r="C21" s="298"/>
-      <c r="D21" s="298"/>
-      <c r="E21" s="298"/>
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="298"/>
-      <c r="I21" s="299"/>
-    </row>
-    <row r="22" spans="1:10" ht="30">
+    <row r="21" spans="1:12" ht="18.75">
+      <c r="A21" s="300" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
+      <c r="H21" s="301"/>
+      <c r="I21" s="302"/>
+    </row>
+    <row r="22" spans="1:12" ht="30">
       <c r="A22" s="141" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B22" s="213">
         <v>1</v>
@@ -6959,11 +7174,15 @@
       <c r="C22" s="209">
         <v>4</v>
       </c>
-      <c r="D22" s="170"/>
+      <c r="D22" s="170">
+        <v>1</v>
+      </c>
       <c r="E22" s="154">
         <v>4</v>
       </c>
-      <c r="F22" s="178"/>
+      <c r="F22" s="178">
+        <v>1</v>
+      </c>
       <c r="G22" s="155">
         <v>4</v>
       </c>
@@ -6972,9 +7191,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="142" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B23" s="213">
         <v>0.5</v>
@@ -6982,11 +7201,15 @@
       <c r="C23" s="210">
         <v>4</v>
       </c>
-      <c r="D23" s="170"/>
+      <c r="D23" s="170">
+        <v>1</v>
+      </c>
       <c r="E23" s="157">
         <v>4</v>
       </c>
-      <c r="F23" s="178"/>
+      <c r="F23" s="178">
+        <v>1</v>
+      </c>
       <c r="G23" s="158">
         <v>4</v>
       </c>
@@ -6995,12 +7218,12 @@
         <v>4</v>
       </c>
       <c r="J23" s="278" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="142" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B24" s="213">
         <v>0.25</v>
@@ -7008,11 +7231,15 @@
       <c r="C24" s="210">
         <v>5</v>
       </c>
-      <c r="D24" s="170"/>
+      <c r="D24" s="170">
+        <v>0</v>
+      </c>
       <c r="E24" s="157">
         <v>5</v>
       </c>
-      <c r="F24" s="178"/>
+      <c r="F24" s="178">
+        <v>1</v>
+      </c>
       <c r="G24" s="158">
         <v>5</v>
       </c>
@@ -7021,12 +7248,15 @@
         <v>5</v>
       </c>
       <c r="J24" s="278" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+        <v>135</v>
+      </c>
+      <c r="K24" s="277" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="146" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B25" s="211">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
@@ -7038,7 +7268,7 @@
       </c>
       <c r="D25" s="169">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E25" s="160">
         <f>SUM(E22:E24)</f>
@@ -7046,7 +7276,7 @@
       </c>
       <c r="F25" s="176">
         <f>SUMPRODUCT(F22:F24,G22:G24)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G25" s="158">
         <f>SUM(G22:G24)</f>
@@ -7061,22 +7291,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75">
-      <c r="A26" s="297" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="298"/>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
-      <c r="E26" s="298"/>
-      <c r="F26" s="298"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="298"/>
-      <c r="I26" s="299"/>
-    </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="26" spans="1:12" ht="18.75">
+      <c r="A26" s="300" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="301"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="301"/>
+      <c r="I26" s="302"/>
+    </row>
+    <row r="27" spans="1:12" ht="15">
       <c r="A27" s="140" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B27" s="215">
         <v>1</v>
@@ -7084,11 +7314,15 @@
       <c r="C27" s="207">
         <v>2</v>
       </c>
-      <c r="D27" s="172"/>
+      <c r="D27" s="172">
+        <v>0</v>
+      </c>
       <c r="E27" s="151">
         <v>2</v>
       </c>
-      <c r="F27" s="179"/>
+      <c r="F27" s="179">
+        <v>0.5</v>
+      </c>
       <c r="G27" s="152">
         <v>2</v>
       </c>
@@ -7096,10 +7330,16 @@
       <c r="I27" s="153">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15">
+      <c r="K27" s="277" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="277" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="141" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B28" s="213">
         <v>1</v>
@@ -7107,11 +7347,15 @@
       <c r="C28" s="209">
         <v>3</v>
       </c>
-      <c r="D28" s="170"/>
+      <c r="D28" s="170">
+        <v>0</v>
+      </c>
       <c r="E28" s="154">
         <v>3</v>
       </c>
-      <c r="F28" s="178"/>
+      <c r="F28" s="178">
+        <v>0</v>
+      </c>
       <c r="G28" s="155">
         <v>3</v>
       </c>
@@ -7119,10 +7363,16 @@
       <c r="I28" s="156">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="30">
+      <c r="K28" s="277" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" s="278" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30">
       <c r="A29" s="142" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B29" s="213">
         <v>0.5</v>
@@ -7130,11 +7380,15 @@
       <c r="C29" s="210">
         <v>3</v>
       </c>
-      <c r="D29" s="170"/>
+      <c r="D29" s="170">
+        <v>1</v>
+      </c>
       <c r="E29" s="157">
         <v>3</v>
       </c>
-      <c r="F29" s="178"/>
+      <c r="F29" s="178">
+        <v>0.5</v>
+      </c>
       <c r="G29" s="158">
         <v>3</v>
       </c>
@@ -7143,12 +7397,15 @@
         <v>3</v>
       </c>
       <c r="J29" s="278" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1">
+        <v>145</v>
+      </c>
+      <c r="L29" s="277" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="146" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B30" s="216">
         <f>SUMPRODUCT(B27:B29,C27:C29)</f>
@@ -7160,7 +7417,7 @@
       </c>
       <c r="D30" s="145">
         <f>SUMPRODUCT(D27:D29,E27:E29)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="160">
         <f>SUM(E27:E29)</f>
@@ -7168,7 +7425,7 @@
       </c>
       <c r="F30" s="176">
         <f>SUMPRODUCT(F27:F29,G27:G29)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G30" s="158">
         <f>SUM(G27:G29)</f>
@@ -7183,22 +7440,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="297" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="298"/>
-      <c r="C31" s="298"/>
-      <c r="D31" s="298"/>
-      <c r="E31" s="298"/>
-      <c r="F31" s="298"/>
-      <c r="G31" s="298"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="299"/>
-    </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="31" spans="1:12" ht="18.75">
+      <c r="A31" s="300" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="301"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="301"/>
+      <c r="F31" s="301"/>
+      <c r="G31" s="301"/>
+      <c r="H31" s="301"/>
+      <c r="I31" s="302"/>
+    </row>
+    <row r="32" spans="1:12" ht="15">
       <c r="A32" s="141" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B32" s="213">
         <v>1</v>
@@ -7206,11 +7463,15 @@
       <c r="C32" s="209">
         <v>3</v>
       </c>
-      <c r="D32" s="170"/>
+      <c r="D32" s="170">
+        <v>1</v>
+      </c>
       <c r="E32" s="154">
         <v>3</v>
       </c>
-      <c r="F32" s="178"/>
+      <c r="F32" s="178">
+        <v>1</v>
+      </c>
       <c r="G32" s="155">
         <v>3</v>
       </c>
@@ -7219,9 +7480,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30">
+    <row r="33" spans="1:12" ht="30">
       <c r="A33" s="141" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B33" s="213">
         <v>0.5</v>
@@ -7229,11 +7490,15 @@
       <c r="C33" s="209">
         <v>4</v>
       </c>
-      <c r="D33" s="170"/>
+      <c r="D33" s="170">
+        <v>1</v>
+      </c>
       <c r="E33" s="154">
         <v>4</v>
       </c>
-      <c r="F33" s="178"/>
+      <c r="F33" s="178">
+        <v>1</v>
+      </c>
       <c r="G33" s="155">
         <v>4</v>
       </c>
@@ -7242,12 +7507,12 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30">
       <c r="A34" s="141" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B34" s="213">
         <v>1</v>
@@ -7255,11 +7520,15 @@
       <c r="C34" s="209">
         <v>3</v>
       </c>
-      <c r="D34" s="170"/>
+      <c r="D34" s="170">
+        <v>1</v>
+      </c>
       <c r="E34" s="154">
         <v>3</v>
       </c>
-      <c r="F34" s="178"/>
+      <c r="F34" s="178">
+        <v>1</v>
+      </c>
       <c r="G34" s="155">
         <v>3</v>
       </c>
@@ -7268,9 +7537,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:12" ht="15">
       <c r="A35" s="141" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B35" s="213">
         <v>1</v>
@@ -7278,11 +7547,15 @@
       <c r="C35" s="209">
         <v>4</v>
       </c>
-      <c r="D35" s="170"/>
+      <c r="D35" s="170">
+        <v>1</v>
+      </c>
       <c r="E35" s="154">
         <v>4</v>
       </c>
-      <c r="F35" s="178"/>
+      <c r="F35" s="178">
+        <v>1</v>
+      </c>
       <c r="G35" s="155">
         <v>4</v>
       </c>
@@ -7291,9 +7564,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:12" ht="15">
       <c r="A36" s="141" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B36" s="213">
         <v>0.5</v>
@@ -7301,11 +7574,15 @@
       <c r="C36" s="209">
         <v>4</v>
       </c>
-      <c r="D36" s="170"/>
+      <c r="D36" s="170">
+        <v>1</v>
+      </c>
       <c r="E36" s="154">
         <v>4</v>
       </c>
-      <c r="F36" s="178"/>
+      <c r="F36" s="178">
+        <v>1</v>
+      </c>
       <c r="G36" s="155">
         <v>4</v>
       </c>
@@ -7314,12 +7591,12 @@
         <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15">
       <c r="A37" s="141" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B37" s="213">
         <v>1</v>
@@ -7327,11 +7604,15 @@
       <c r="C37" s="209">
         <v>2</v>
       </c>
-      <c r="D37" s="170"/>
+      <c r="D37" s="170">
+        <v>0.5</v>
+      </c>
       <c r="E37" s="154">
         <v>2</v>
       </c>
-      <c r="F37" s="178"/>
+      <c r="F37" s="178">
+        <v>1</v>
+      </c>
       <c r="G37" s="155">
         <v>2</v>
       </c>
@@ -7339,10 +7620,13 @@
       <c r="I37" s="156">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="30">
+      <c r="K37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30">
       <c r="A38" s="142" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B38" s="213">
         <v>1</v>
@@ -7350,11 +7634,15 @@
       <c r="C38" s="210">
         <v>10</v>
       </c>
-      <c r="D38" s="170"/>
+      <c r="D38" s="170">
+        <v>1</v>
+      </c>
       <c r="E38" s="157">
         <v>10</v>
       </c>
-      <c r="F38" s="178"/>
+      <c r="F38" s="178">
+        <v>1</v>
+      </c>
       <c r="G38" s="158">
         <v>10</v>
       </c>
@@ -7363,9 +7651,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:12" ht="15">
       <c r="A39" s="142" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B39" s="213">
         <v>1</v>
@@ -7373,11 +7661,15 @@
       <c r="C39" s="210">
         <v>4</v>
       </c>
-      <c r="D39" s="170"/>
+      <c r="D39" s="170">
+        <v>1</v>
+      </c>
       <c r="E39" s="157">
         <v>4</v>
       </c>
-      <c r="F39" s="178"/>
+      <c r="F39" s="178">
+        <v>1</v>
+      </c>
       <c r="G39" s="158">
         <v>4</v>
       </c>
@@ -7386,9 +7678,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:12" ht="15">
       <c r="A40" s="142" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B40" s="213">
         <v>0.9</v>
@@ -7396,11 +7688,15 @@
       <c r="C40" s="210">
         <v>3</v>
       </c>
-      <c r="D40" s="170"/>
+      <c r="D40" s="170">
+        <v>1</v>
+      </c>
       <c r="E40" s="157">
         <v>3</v>
       </c>
-      <c r="F40" s="178"/>
+      <c r="F40" s="178">
+        <v>1</v>
+      </c>
       <c r="G40" s="158">
         <v>3</v>
       </c>
@@ -7409,12 +7705,12 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1">
       <c r="A41" s="146" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B41" s="216">
         <f>SUMPRODUCT(B32:B40,C32:C40)</f>
@@ -7426,7 +7722,7 @@
       </c>
       <c r="D41" s="145">
         <f>SUMPRODUCT(D32:D40,E32:E40)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E41" s="160">
         <f>SUM(E32:E40)</f>
@@ -7434,7 +7730,7 @@
       </c>
       <c r="F41" s="176">
         <f>SUMPRODUCT(F32:F40,G32:G40)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G41" s="158">
         <f>SUM(G32:G40)</f>
@@ -7449,22 +7745,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18.75">
-      <c r="A42" s="297" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="298"/>
-      <c r="C42" s="298"/>
-      <c r="D42" s="298"/>
-      <c r="E42" s="298"/>
-      <c r="F42" s="298"/>
-      <c r="G42" s="298"/>
-      <c r="H42" s="298"/>
-      <c r="I42" s="299"/>
-    </row>
-    <row r="43" spans="1:10" ht="30">
+    <row r="42" spans="1:12" ht="18.75">
+      <c r="A42" s="300" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="301"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="301"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="301"/>
+      <c r="G42" s="301"/>
+      <c r="H42" s="301"/>
+      <c r="I42" s="302"/>
+    </row>
+    <row r="43" spans="1:12" ht="30">
       <c r="A43" s="144" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B43" s="215">
         <v>1</v>
@@ -7472,11 +7768,15 @@
       <c r="C43" s="217">
         <v>3</v>
       </c>
-      <c r="D43" s="172"/>
+      <c r="D43" s="172">
+        <v>1</v>
+      </c>
       <c r="E43" s="161">
         <v>3</v>
       </c>
-      <c r="F43" s="179"/>
+      <c r="F43" s="179">
+        <v>1</v>
+      </c>
       <c r="G43" s="162">
         <v>3</v>
       </c>
@@ -7485,9 +7785,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="30">
+    <row r="44" spans="1:12" ht="135">
       <c r="A44" s="142" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B44" s="213">
         <v>1</v>
@@ -7495,11 +7795,15 @@
       <c r="C44" s="210">
         <v>4</v>
       </c>
-      <c r="D44" s="170"/>
+      <c r="D44" s="170">
+        <v>0</v>
+      </c>
       <c r="E44" s="157">
         <v>4</v>
       </c>
-      <c r="F44" s="178"/>
+      <c r="F44" s="178">
+        <v>1</v>
+      </c>
       <c r="G44" s="158">
         <v>4</v>
       </c>
@@ -7507,10 +7811,13 @@
       <c r="I44" s="159">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="45">
+      <c r="K44" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="45">
       <c r="A45" s="143" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B45" s="213">
         <v>1</v>
@@ -7518,11 +7825,15 @@
       <c r="C45" s="209">
         <v>4</v>
       </c>
-      <c r="D45" s="170"/>
+      <c r="D45" s="170">
+        <v>0.5</v>
+      </c>
       <c r="E45" s="154">
         <v>4</v>
       </c>
-      <c r="F45" s="178"/>
+      <c r="F45" s="178">
+        <v>0</v>
+      </c>
       <c r="G45" s="155">
         <v>4</v>
       </c>
@@ -7530,10 +7841,16 @@
       <c r="I45" s="159">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+      <c r="K45" t="s">
+        <v>166</v>
+      </c>
+      <c r="L45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1">
       <c r="A46" s="147" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B46" s="211">
         <f>SUMPRODUCT(B43:B45,C43:C45)</f>
@@ -7545,7 +7862,7 @@
       </c>
       <c r="D46" s="169">
         <f>SUMPRODUCT(D43:D45,E43:E45)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="160">
         <f>SUM(E43:E45)</f>
@@ -7553,7 +7870,7 @@
       </c>
       <c r="F46" s="221">
         <f>SUMPRODUCT(F43:F45,G43:G45)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G46" s="200">
         <f>SUM(G43:G45)</f>
@@ -7568,22 +7885,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A47" s="297" t="s">
+    <row r="47" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A47" s="300" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="298"/>
-      <c r="C47" s="298"/>
-      <c r="D47" s="298"/>
-      <c r="E47" s="298"/>
-      <c r="F47" s="298"/>
-      <c r="G47" s="298"/>
-      <c r="H47" s="298"/>
-      <c r="I47" s="299"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1">
+      <c r="B47" s="301"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="301"/>
+      <c r="E47" s="301"/>
+      <c r="F47" s="301"/>
+      <c r="G47" s="301"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="302"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
       <c r="A48" s="187" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B48" s="218">
         <f>B10+B15+B20+B25+B30+B41+B46</f>
@@ -7595,7 +7912,7 @@
       </c>
       <c r="D48" s="173">
         <f>D10+D15+D20+D25+D30+D41+D46</f>
-        <v>4</v>
+        <v>66.5</v>
       </c>
       <c r="E48" s="164">
         <f>E10+E15+E20+E25+E30+E41+E46</f>
@@ -7603,7 +7920,7 @@
       </c>
       <c r="F48" s="180">
         <f>F10+F15+F20+F25+F30+F41+F46</f>
-        <v>0</v>
+        <v>79.25</v>
       </c>
       <c r="G48" s="165">
         <f>G10+G15+G20+G25+G30+G41+G46</f>
@@ -7620,28 +7937,28 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1">
       <c r="A49" s="187" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="302">
+        <v>169</v>
+      </c>
+      <c r="B49" s="305">
         <f>B48/C48</f>
         <v>0.81200000000000006</v>
       </c>
-      <c r="C49" s="303"/>
-      <c r="D49" s="304">
+      <c r="C49" s="306"/>
+      <c r="D49" s="307">
         <f>D48/E48</f>
-        <v>0.04</v>
-      </c>
-      <c r="E49" s="305"/>
-      <c r="F49" s="293">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E49" s="308"/>
+      <c r="F49" s="296">
         <f>F48/G48</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="294"/>
-      <c r="H49" s="295">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="G49" s="297"/>
+      <c r="H49" s="298">
         <f>H48/I48</f>
         <v>0</v>
       </c>
-      <c r="I49" s="296"/>
+      <c r="I49" s="299"/>
     </row>
     <row r="50" spans="1:9" ht="15"/>
     <row r="51" spans="1:9" ht="15"/>
@@ -7685,10 +8002,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7698,14 +8015,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A1" s="312" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
+      <c r="A1" s="315" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
       <c r="G1" s="222"/>
       <c r="H1" s="222"/>
       <c r="I1" s="222"/>
@@ -7717,11 +8034,11 @@
       <c r="O1" s="223"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A2" s="279"/>
-      <c r="B2" s="279"/>
+      <c r="A2" s="283"/>
+      <c r="B2" s="283"/>
       <c r="C2" s="139"/>
       <c r="D2" s="139"/>
-      <c r="E2" s="279"/>
+      <c r="E2" s="283"/>
       <c r="F2" s="139"/>
       <c r="G2" s="224"/>
       <c r="H2" s="225"/>
@@ -7734,14 +8051,14 @@
       <c r="O2" s="223"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" thickBot="1">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="315" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
       <c r="G3" s="222"/>
       <c r="H3" s="222"/>
       <c r="I3" s="222"/>
@@ -7764,14 +8081,14 @@
       <c r="O4" s="223"/>
     </row>
     <row r="5" spans="1:15" ht="24" thickBot="1">
-      <c r="A5" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="322"/>
-      <c r="C5" s="322"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
+      <c r="A5" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="325"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
       <c r="G5" s="223"/>
       <c r="H5" s="223"/>
       <c r="I5" s="223"/>
@@ -7786,13 +8103,13 @@
       <c r="A6" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="323" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="324"/>
+      <c r="B6" s="326" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="326"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="327"/>
       <c r="G6" s="227"/>
       <c r="H6" s="223"/>
       <c r="I6" s="223"/>
@@ -7805,19 +8122,19 @@
     </row>
     <row r="7" spans="1:15" ht="15">
       <c r="A7" s="206" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B7" s="228" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="228" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D7" s="228" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="228" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F7" s="229" t="s">
         <v>103</v>
@@ -7834,7 +8151,7 @@
     </row>
     <row r="8" spans="1:15" ht="25.15" customHeight="1">
       <c r="A8" s="230" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B8" s="231">
         <v>0</v>
@@ -7850,10 +8167,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="209" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G8" s="227" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H8" s="223"/>
       <c r="I8" s="223"/>
@@ -7866,7 +8183,7 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="230" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B9" s="231">
         <v>0.95</v>
@@ -7882,10 +8199,10 @@
         <v>10.687499999999998</v>
       </c>
       <c r="F9" s="232" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G9" s="227" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H9" s="223"/>
       <c r="I9" s="223"/>
@@ -7898,7 +8215,7 @@
     </row>
     <row r="10" spans="1:15" ht="15">
       <c r="A10" s="230" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="B10" s="231">
         <v>0.5</v>
@@ -7914,10 +8231,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="232" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G10" s="227" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H10" s="223"/>
       <c r="I10" s="223"/>
@@ -7930,7 +8247,7 @@
     </row>
     <row r="11" spans="1:15" ht="75">
       <c r="A11" s="230" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B11" s="231">
         <v>0.8</v>
@@ -7946,10 +8263,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="209" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G11" s="227" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H11" s="223"/>
       <c r="I11" s="223"/>
@@ -7962,7 +8279,7 @@
     </row>
     <row r="12" spans="1:15" ht="105">
       <c r="A12" s="230" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B12" s="231">
         <v>0.65</v>
@@ -7978,10 +8295,10 @@
         <v>1.9500000000000002</v>
       </c>
       <c r="F12" s="209" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G12" s="227" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H12" s="223"/>
       <c r="I12" s="223"/>
@@ -7994,7 +8311,7 @@
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="230" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B13" s="231">
         <v>0.9</v>
@@ -8010,10 +8327,10 @@
         <v>2.7</v>
       </c>
       <c r="F13" s="209" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G13" s="227" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H13" s="223"/>
       <c r="I13" s="223"/>
@@ -8026,7 +8343,7 @@
     </row>
     <row r="14" spans="1:15" ht="90">
       <c r="A14" s="230" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B14" s="231">
         <v>0.6</v>
@@ -8042,10 +8359,10 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="F14" s="209" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G14" s="233" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="H14" s="234"/>
       <c r="I14" s="234"/>
@@ -8058,7 +8375,7 @@
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="230" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B15" s="231">
         <v>0</v>
@@ -8074,92 +8391,98 @@
         <v>0</v>
       </c>
       <c r="F15" s="232" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45">
       <c r="A16" s="235" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="325"/>
-      <c r="C16" s="325"/>
-      <c r="D16" s="284">
+        <v>191</v>
+      </c>
+      <c r="B16" s="328"/>
+      <c r="C16" s="328"/>
+      <c r="D16" s="288">
         <f>SUM(D8:D15)</f>
         <v>100</v>
       </c>
-      <c r="E16" s="285">
+      <c r="E16" s="279">
         <f>SUM(E8:E15)/D16 - E18*D18 - E17*D17</f>
         <v>0.26137499999999997</v>
       </c>
       <c r="F16" s="276" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="257" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D17" s="261">
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="257" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D18" s="261">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24" thickBot="1">
-      <c r="A19" s="331" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="332"/>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="24" thickBot="1">
+      <c r="A19" s="334" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="335"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="335"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="335"/>
+    </row>
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="333"/>
-      <c r="C20" s="334"/>
-      <c r="D20" s="334"/>
-      <c r="E20" s="334"/>
-      <c r="F20" s="334"/>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" thickBot="1">
+      <c r="B20" s="336" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="337"/>
+      <c r="D20" s="337"/>
+      <c r="E20" s="337"/>
+      <c r="F20" s="337"/>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" thickBot="1">
       <c r="A21" s="167" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B21" s="167" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="167" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D21" s="167" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="167" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F21" s="167" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22" s="167" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
+        <v>196</v>
+      </c>
+      <c r="B22" s="167">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="167">
+        <v>0</v>
+      </c>
       <c r="D22" s="167">
         <v>15</v>
       </c>
@@ -8167,29 +8490,47 @@
         <f>B22*C22*D22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="167"/>
-    </row>
-    <row r="23" spans="1:6" ht="15">
+      <c r="F22" s="167" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60">
       <c r="A23" s="167" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
+        <v>198</v>
+      </c>
+      <c r="B23" s="167">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="167">
+        <v>0.25</v>
+      </c>
       <c r="D23" s="167">
         <v>10</v>
       </c>
       <c r="E23" s="167">
         <f t="shared" ref="E23:E31" si="1">B23*C23*D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="167"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="167" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="167" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
+        <v>200</v>
+      </c>
+      <c r="B24" s="167">
+        <v>1</v>
+      </c>
+      <c r="C24" s="167">
+        <v>0</v>
+      </c>
       <c r="D24" s="167">
         <v>15</v>
       </c>
@@ -8197,29 +8538,47 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="167"/>
-    </row>
-    <row r="25" spans="1:6" ht="15">
+      <c r="F24" s="167" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" s="167" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
+        <v>202</v>
+      </c>
+      <c r="B25" s="167">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="167">
+        <v>1</v>
+      </c>
       <c r="D25" s="167">
         <v>10</v>
       </c>
       <c r="E25" s="167">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="167"/>
-    </row>
-    <row r="26" spans="1:6" ht="15">
+        <v>7.5</v>
+      </c>
+      <c r="F25" s="167" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="167" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
+        <v>204</v>
+      </c>
+      <c r="B26" s="167">
+        <v>0</v>
+      </c>
+      <c r="C26" s="167">
+        <v>0</v>
+      </c>
       <c r="D26" s="167">
         <v>10</v>
       </c>
@@ -8227,74 +8586,115 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="167"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
+      <c r="F26" s="167" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="135">
       <c r="A27" s="167" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
+        <v>205</v>
+      </c>
+      <c r="B27" s="167">
+        <v>0.4</v>
+      </c>
+      <c r="C27" s="167">
+        <v>1</v>
+      </c>
       <c r="D27" s="167">
         <v>8</v>
       </c>
       <c r="E27" s="167">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="167"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+        <v>3.2</v>
+      </c>
+      <c r="F27" s="167" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
+        <v>207</v>
+      </c>
+      <c r="B28" s="167">
+        <v>1</v>
+      </c>
+      <c r="C28" s="167">
+        <v>1</v>
+      </c>
       <c r="D28" s="167">
         <v>8</v>
       </c>
       <c r="E28" s="167">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F28" s="167"/>
-    </row>
-    <row r="29" spans="1:6" ht="15">
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="167" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
+        <v>208</v>
+      </c>
+      <c r="B29" s="167">
+        <v>0.85</v>
+      </c>
+      <c r="C29" s="167">
+        <v>1</v>
+      </c>
       <c r="D29" s="167">
         <v>8</v>
       </c>
       <c r="E29" s="167">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="167"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
+        <v>6.8</v>
+      </c>
+      <c r="F29" s="167" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="167" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
+        <v>210</v>
+      </c>
+      <c r="B30" s="167">
+        <v>1</v>
+      </c>
+      <c r="C30" s="167">
+        <v>1</v>
+      </c>
       <c r="D30" s="167">
         <v>8</v>
       </c>
       <c r="E30" s="167">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F30" s="167"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="G30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75">
       <c r="A31" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
+        <v>211</v>
+      </c>
+      <c r="B31" s="167">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="167">
+        <v>0</v>
+      </c>
       <c r="D31" s="167">
         <v>8</v>
       </c>
@@ -8302,11 +8702,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="167"/>
-    </row>
-    <row r="32" spans="1:6" ht="15">
+      <c r="F31" s="167" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45">
       <c r="A32" s="242" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B32" s="242"/>
       <c r="C32" s="242"/>
@@ -8315,214 +8720,294 @@
         <v>100</v>
       </c>
       <c r="E32" s="254">
-        <f>SUM(E22:E30)/D32 -E33*D33 -E34*D34-E35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="242"/>
-    </row>
-    <row r="33" spans="1:6" ht="15">
+        <f>SUM(E22:E31)/D32 -E33*D33 -E34*D34-E35*D35</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F32" s="242" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="258" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D33" s="259">
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="258" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D34" s="260">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:7" ht="45">
       <c r="A35" s="258" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D35" s="270">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24" thickBot="1">
-      <c r="A36" s="326" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24" thickBot="1">
+      <c r="A36" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="326"/>
-      <c r="C36" s="326"/>
-      <c r="D36" s="326"/>
-      <c r="E36" s="326"/>
-      <c r="F36" s="326"/>
-    </row>
-    <row r="37" spans="1:6" ht="15">
+      <c r="B36" s="329"/>
+      <c r="C36" s="329"/>
+      <c r="D36" s="329"/>
+      <c r="E36" s="329"/>
+      <c r="F36" s="329"/>
+    </row>
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="327"/>
-      <c r="C37" s="327"/>
-      <c r="D37" s="327"/>
-      <c r="E37" s="327"/>
-      <c r="F37" s="328"/>
-    </row>
-    <row r="38" spans="1:6" ht="15">
+      <c r="B37" s="330" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="330"/>
+      <c r="D37" s="330"/>
+      <c r="E37" s="330"/>
+      <c r="F37" s="331"/>
+    </row>
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="244" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B38" s="245" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="245" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D38" s="245" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="245" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F38" s="246" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15">
+    <row r="39" spans="1:7" ht="15">
       <c r="A39" s="247" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="248"/>
-      <c r="C39" s="248"/>
+        <v>217</v>
+      </c>
+      <c r="B39" s="248">
+        <v>1</v>
+      </c>
+      <c r="C39" s="248">
+        <v>0.75</v>
+      </c>
       <c r="D39" s="248">
         <v>12</v>
       </c>
       <c r="E39" s="248">
         <f>B39*C39*D39</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="246"/>
-    </row>
-    <row r="40" spans="1:6" ht="15">
+        <v>9</v>
+      </c>
+      <c r="F39" s="246" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15">
       <c r="A40" s="247" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" s="248"/>
-      <c r="C40" s="248"/>
+        <v>219</v>
+      </c>
+      <c r="B40" s="248">
+        <v>1</v>
+      </c>
+      <c r="C40" s="248">
+        <v>1</v>
+      </c>
       <c r="D40" s="248">
         <v>10</v>
       </c>
       <c r="E40" s="248">
         <f t="shared" ref="E40:E46" si="2">B40*C40*D40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="155"/>
-    </row>
-    <row r="41" spans="1:6" ht="15">
+        <v>10</v>
+      </c>
+      <c r="F40" s="155" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="150">
       <c r="A41" s="247" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" s="248"/>
-      <c r="C41" s="248"/>
+        <v>221</v>
+      </c>
+      <c r="B41" s="248">
+        <v>0.6</v>
+      </c>
+      <c r="C41" s="248">
+        <v>1</v>
+      </c>
       <c r="D41" s="248">
         <v>15</v>
       </c>
       <c r="E41" s="248">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="246"/>
-    </row>
-    <row r="42" spans="1:6" ht="15">
+        <v>9</v>
+      </c>
+      <c r="F41" s="155" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45">
       <c r="A42" s="247" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="248"/>
-      <c r="C42" s="248"/>
+        <v>223</v>
+      </c>
+      <c r="B42" s="248">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="248">
+        <v>1</v>
+      </c>
       <c r="D42" s="248">
         <v>10</v>
       </c>
       <c r="E42" s="248">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="155"/>
-    </row>
-    <row r="43" spans="1:6" ht="15">
+        <v>2</v>
+      </c>
+      <c r="F42" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="75">
       <c r="A43" s="247" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" s="248"/>
-      <c r="C43" s="248"/>
+        <v>225</v>
+      </c>
+      <c r="B43" s="248">
+        <v>0.95</v>
+      </c>
+      <c r="C43" s="248">
+        <v>1</v>
+      </c>
       <c r="D43" s="248">
         <v>12</v>
       </c>
       <c r="E43" s="248">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="246"/>
-    </row>
-    <row r="44" spans="1:6" ht="15">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="F43" s="155" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="247" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" s="248"/>
-      <c r="C44" s="248"/>
+        <v>227</v>
+      </c>
+      <c r="B44" s="248">
+        <v>0.95</v>
+      </c>
+      <c r="C44" s="248">
+        <v>1</v>
+      </c>
       <c r="D44" s="248">
         <v>12</v>
       </c>
       <c r="E44" s="248">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="246"/>
-    </row>
-    <row r="45" spans="1:6" ht="15">
+        <v>11.399999999999999</v>
+      </c>
+      <c r="F44" s="246" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15">
       <c r="A45" s="247" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="248"/>
-      <c r="C45" s="248"/>
+        <v>229</v>
+      </c>
+      <c r="B45" s="248">
+        <v>1</v>
+      </c>
+      <c r="C45" s="248">
+        <v>1</v>
+      </c>
       <c r="D45" s="248">
         <v>14</v>
       </c>
       <c r="E45" s="248">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F45" s="246"/>
-    </row>
-    <row r="46" spans="1:6" ht="15">
+      <c r="G45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60">
       <c r="A46" s="247" t="s">
-        <v>196</v>
-      </c>
-      <c r="B46" s="248"/>
-      <c r="C46" s="248"/>
+        <v>230</v>
+      </c>
+      <c r="B46" s="248">
+        <v>0.8</v>
+      </c>
+      <c r="C46" s="248">
+        <v>1</v>
+      </c>
       <c r="D46" s="248">
         <v>15</v>
       </c>
       <c r="E46" s="248">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="246"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="F46" s="155" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1">
       <c r="A47" s="249" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="329"/>
-      <c r="C47" s="330"/>
+        <v>191</v>
+      </c>
+      <c r="B47" s="332"/>
+      <c r="C47" s="333"/>
       <c r="D47" s="250">
         <f>SUM(D39:D46)</f>
         <v>100</v>
       </c>
       <c r="E47" s="255">
         <f>SUM(E39:E46)/D47 - D48*E48  - D49*E49 - D50*E50</f>
-        <v>0</v>
+        <v>0.78799999999999992</v>
       </c>
       <c r="F47" s="251"/>
     </row>
-    <row r="48" spans="1:6" ht="15">
+    <row r="48" spans="1:7" ht="15">
       <c r="A48" s="262" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D48" s="260">
         <v>0.15</v>
@@ -8530,21 +9015,21 @@
     </row>
     <row r="49" spans="1:7" ht="15">
       <c r="A49" s="262" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D49" s="260">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="271" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D50" s="270">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="24" thickBot="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="24" customHeight="1">
       <c r="A51" s="267" t="s">
         <v>49</v>
       </c>
@@ -8559,28 +9044,28 @@
       <c r="A52" s="236" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="319"/>
-      <c r="C52" s="320"/>
-      <c r="D52" s="320"/>
-      <c r="E52" s="320"/>
-      <c r="F52" s="321"/>
+      <c r="B52" s="322"/>
+      <c r="C52" s="323"/>
+      <c r="D52" s="323"/>
+      <c r="E52" s="323"/>
+      <c r="F52" s="324"/>
       <c r="G52" s="269"/>
     </row>
     <row r="53" spans="1:7" ht="15">
       <c r="A53" s="237" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B53" s="238" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="238" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D53" s="238" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="238" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F53" s="239" t="s">
         <v>103</v>
@@ -8588,12 +9073,12 @@
     </row>
     <row r="54" spans="1:7" ht="15">
       <c r="A54" s="240" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="B54" s="241"/>
       <c r="C54" s="241"/>
       <c r="D54" s="241">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" s="241">
         <f>B54*C54*D54</f>
@@ -8603,27 +9088,27 @@
     </row>
     <row r="55" spans="1:7" ht="15">
       <c r="A55" s="240" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="B55" s="241"/>
       <c r="C55" s="241"/>
       <c r="D55" s="241">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="241">
-        <f t="shared" ref="E55:E59" si="3">B55*C55*D55</f>
+        <f t="shared" ref="E55:E61" si="3">B55*C55*D55</f>
         <v>0</v>
       </c>
       <c r="F55" s="239"/>
     </row>
     <row r="56" spans="1:7" ht="15">
       <c r="A56" s="240" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B56" s="241"/>
       <c r="C56" s="241"/>
       <c r="D56" s="241">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E56" s="241">
         <f t="shared" si="3"/>
@@ -8633,12 +9118,12 @@
     </row>
     <row r="57" spans="1:7" ht="15">
       <c r="A57" s="240" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B57" s="241"/>
       <c r="C57" s="241"/>
       <c r="D57" s="241">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E57" s="241">
         <f t="shared" si="3"/>
@@ -8648,7 +9133,7 @@
     </row>
     <row r="58" spans="1:7" ht="15">
       <c r="A58" s="240" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="B58" s="241"/>
       <c r="C58" s="241"/>
@@ -8663,12 +9148,12 @@
     </row>
     <row r="59" spans="1:7" ht="15">
       <c r="A59" s="240" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B59" s="241"/>
       <c r="C59" s="241"/>
       <c r="D59" s="241">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="241">
         <f t="shared" si="3"/>
@@ -8676,46 +9161,88 @@
       </c>
       <c r="F59" s="239"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A60" s="252" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="253"/>
-      <c r="C60" s="253"/>
-      <c r="D60" s="264">
-        <f>SUM(D54:D59)</f>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="280" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="281"/>
+      <c r="C60" s="281"/>
+      <c r="D60" s="281">
+        <v>5</v>
+      </c>
+      <c r="E60" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="282"/>
+    </row>
+    <row r="61" spans="1:7" ht="15">
+      <c r="A61" s="280" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" s="281"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="281">
+        <v>5</v>
+      </c>
+      <c r="E61" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="282"/>
+    </row>
+    <row r="62" spans="1:7" ht="15">
+      <c r="A62" s="252" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="253"/>
+      <c r="C62" s="253"/>
+      <c r="D62" s="264">
+        <f>SUM(D54:D61)</f>
         <v>100</v>
       </c>
-      <c r="E60" s="256">
-        <f>SUM(E54:E59)/D60 - D61*E61 - D62*E62 - D63*E63</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="273"/>
-    </row>
-    <row r="61" spans="1:7" ht="15">
-      <c r="A61" s="263" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="265">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="15">
-      <c r="A62" s="263" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="265">
-        <v>0.2</v>
-      </c>
+      <c r="E62" s="256">
+        <f>SUM(E54:E61)/D62 - D63*E63 - D64*E64 - D65*E65 +D66</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="273"/>
     </row>
     <row r="63" spans="1:7" ht="15">
       <c r="A63" s="263" t="s">
-        <v>188</v>
-      </c>
-      <c r="D63" s="270">
-        <v>0.1</v>
-      </c>
-    </row>
+        <v>193</v>
+      </c>
+      <c r="D63" s="265">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A64" s="263" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="265">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A65" s="263" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="270">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A66" s="263" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" s="272">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B52:F52"/>
@@ -8731,14 +9258,14 @@
     <mergeCell ref="B20:F20"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B30 B39:B46 B54:B59 B8:B16" xr:uid="{02AD5C76-68EA-4533-AF68-4BCE486B6675}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B30 B39:B46 B8:B16 B54:B61" xr:uid="{02AD5C76-68EA-4533-AF68-4BCE486B6675}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 C17 C22:C30 C39:C46 C54:C59" xr:uid="{AC10B1DB-878E-4658-A3A1-9F3FA089772E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 C17 C22:C30 C39:C46 C54:C61" xr:uid="{AC10B1DB-878E-4658-A3A1-9F3FA089772E}">
       <formula1>"0,0.25,0.50,0.75,1"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18 E34 E49 E62" xr:uid="{FA2B8A47-2CDB-459F-94DD-EED519325ECE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18 E34 E49 E64" xr:uid="{FA2B8A47-2CDB-459F-94DD-EED519325ECE}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
